--- a/biology/Zoologie/Batrachoseps_major/Batrachoseps_major.xlsx
+++ b/biology/Zoologie/Batrachoseps_major/Batrachoseps_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps major est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps major est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du Sud de la Californie aux États-Unis, de la base des monts San Gabriel et San Bernardino, jusqu'à la ville d'El Rosario dans l'État de Basse-Californie au Mexique. Des populations isolées se trouvent également aux États-Unis sur l'île de Catalina et, au Mexique, dans la sierra de San Pedro Mártir et sur les îles Los Coronados et Todos Santos. Elle est présente entre 300 et 1 000 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du Sud de la Californie aux États-Unis, de la base des monts San Gabriel et San Bernardino, jusqu'à la ville d'El Rosario dans l'État de Basse-Californie au Mexique. Des populations isolées se trouvent également aux États-Unis sur l'île de Catalina et, au Mexique, dans la sierra de San Pedro Mártir et sur les îles Los Coronados et Todos Santos. Elle est présente entre 300 et 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps major mesure de 45 à 69 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps major mesure de 45 à 69 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin major, « grande », lui a été donné en référence à sa taille.
 </t>
@@ -604,9 +622,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps catalinae[3] et Batrachoseps leucopus[3] ont été placées en synonymie avec Batrachoseps major par Dunn en 1926[4] et Batrachoseps aridus[5] par Wake et Jockusch en 2000[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps catalinae et Batrachoseps leucopus ont été placées en synonymie avec Batrachoseps major par Dunn en 1926 et Batrachoseps aridus par Wake et Jockusch en 2000.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Camp, 1915 : Batrachoseps major and Bufo cognatus californicus, new Amphibia from southern California. University of California Publications in Zoology, vol. 12, p. 327-334 (texte intégral).</t>
         </is>
